--- a/outputs-HGR-r202-archive/g__Enterocloster.xlsx
+++ b/outputs-HGR-r202-archive/g__Enterocloster.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,73 +540,83 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58031.fa</t>
+          <t>even_MAG-GUT33657.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.180658336754553e-05</v>
+        <v>0.01416995289984451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08323173673444387</v>
+        <v>0.007032596430465727</v>
       </c>
       <c r="D2" t="n">
-        <v>6.285992811458341e-05</v>
+        <v>0.001914900352217104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02245523908628757</v>
+        <v>0.02636301097311251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007664589028286809</v>
+        <v>0.001769329767789052</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01146427737907224</v>
+        <v>0.01698750834484411</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005934724534684509</v>
+        <v>0.006737378631208064</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004115131168526783</v>
+        <v>0.004335880739152437</v>
       </c>
       <c r="J2" t="n">
-        <v>1.504929987264182e-08</v>
+        <v>0.002012529197051532</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01589052515039701</v>
+        <v>0.01324921019105777</v>
       </c>
       <c r="L2" t="n">
-        <v>6.859027002945454e-05</v>
+        <v>4.664237198882104e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.374744639092095e-06</v>
+        <v>6.960040999231455e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001468198016363108</v>
+        <v>0.004325296250001704</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01102367004912635</v>
+        <v>0.3857400106137104</v>
       </c>
       <c r="P2" t="n">
-        <v>0.836549003616638</v>
+        <v>0.5131914072144675</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.523466592910686e-06</v>
+        <v>0.001987479904353319</v>
       </c>
       <c r="R2" t="n">
-        <v>3.569227151426855e-05</v>
+        <v>6.726569376910275e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>4.292261607437719e-08</v>
+        <v>1.497394356299093e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>0.836549003616638</v>
+        <v>0.5131914072144675</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>s__Enterocloster sp900549235</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>s__Enterocloster sp900549235(reject)</t>
         </is>
       </c>
     </row>
